--- a/data/faskes_kelurahan.xlsx
+++ b/data/faskes_kelurahan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\superapp-research\Documents\Super App Research\driver-side\location-choice-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751A1EAF-DB57-4D30-AB53-B2F105CE1E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE9703-84DB-4EC5-A2A9-DC097DD9212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taman_kantor_SummarizeWithin" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
     <t>kelurahan</t>
   </si>
   <si>
@@ -481,13 +478,16 @@
     <t>Pasirjati</t>
   </si>
   <si>
-    <t>jumlah_faskes</t>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>loc_heath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -876,10 +876,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>153</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -941,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1056,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1065,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1098,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1107,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -1171,7 +1171,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -1193,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -1224,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -1244,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1253,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -1273,7 +1273,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -1282,7 +1282,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -1293,7 +1293,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2">
         <v>6</v>
@@ -1304,7 +1304,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
@@ -1315,7 +1315,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -1324,7 +1324,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -1364,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
@@ -1375,7 +1375,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1384,7 +1384,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1393,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1402,7 +1402,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -1411,7 +1411,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
@@ -1488,7 +1488,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -1497,7 +1497,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -1517,7 +1517,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -1526,7 +1526,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
@@ -1537,7 +1537,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
@@ -1548,7 +1548,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -1568,7 +1568,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
@@ -1579,7 +1579,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -1588,7 +1588,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="2">
         <v>3</v>
@@ -1630,7 +1630,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -1650,7 +1650,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -1681,7 +1681,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -1690,7 +1690,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="3"/>
     </row>
@@ -1710,7 +1710,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -1730,7 +1730,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
@@ -1741,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -1752,7 +1752,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -1763,7 +1763,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2">
         <v>3</v>
@@ -1774,7 +1774,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3"/>
     </row>
@@ -1805,7 +1805,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2">
         <v>1</v>
@@ -1838,7 +1838,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -1849,7 +1849,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2">
         <v>4</v>
@@ -1860,7 +1860,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
@@ -1882,7 +1882,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3"/>
     </row>
@@ -1902,7 +1902,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
@@ -1913,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="3"/>
     </row>
@@ -1966,7 +1966,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -1975,7 +1975,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -1984,7 +1984,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="3"/>
     </row>
@@ -2004,7 +2004,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="3"/>
     </row>
@@ -2024,7 +2024,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="3"/>
     </row>
@@ -2055,7 +2055,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2">
         <v>4</v>
@@ -2066,7 +2066,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2">
         <v>2</v>
@@ -2088,7 +2088,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -2097,7 +2097,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2">
         <v>3</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -2139,7 +2139,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
@@ -2161,7 +2161,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2">
         <v>2</v>
@@ -2183,7 +2183,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="3"/>
     </row>
@@ -2192,7 +2192,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2">
         <v>1</v>
@@ -2214,7 +2214,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2">
         <v>2</v>
@@ -2225,7 +2225,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" s="3"/>
     </row>
@@ -2234,7 +2234,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2">
         <v>3</v>
@@ -2256,7 +2256,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="3"/>
     </row>
@@ -2265,7 +2265,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" s="2">
         <v>3</v>
@@ -2287,7 +2287,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137" s="3"/>
     </row>
@@ -2296,7 +2296,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" s="2">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2">
         <v>2</v>
@@ -2329,7 +2329,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" s="2">
         <v>1</v>
@@ -2340,7 +2340,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" s="2">
         <v>3</v>
@@ -2351,7 +2351,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" s="2">
         <v>1</v>
@@ -2362,7 +2362,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="2">
         <v>3</v>
@@ -2373,7 +2373,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" s="3"/>
     </row>
@@ -2382,7 +2382,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2">
         <v>2</v>
@@ -2393,7 +2393,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="3"/>
     </row>
@@ -2402,7 +2402,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="3"/>
     </row>
@@ -2422,7 +2422,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="3"/>
     </row>
@@ -2431,7 +2431,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" s="3"/>
     </row>
@@ -2440,7 +2440,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
